--- a/code/BlueHr/BlueHrWeb/Template/加班记录导入文件模板.xlsx
+++ b/code/BlueHr/BlueHrWeb/Template/加班记录导入文件模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>工号</t>
   </si>
@@ -37,8 +37,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加班时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>开始时间(小时)</t>
+  </si>
+  <si>
+    <t>结束时间(小时)</t>
+  </si>
+  <si>
+    <t>加班时长(小时)</t>
   </si>
 </sst>
 </file>
@@ -49,13 +54,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -397,22 +402,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -423,13 +427,19 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/code/BlueHr/BlueHrWeb/Template/加班记录导入文件模板.xlsx
+++ b/code/BlueHr/BlueHrWeb/Template/加班记录导入文件模板.xlsx
@@ -54,13 +54,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -86,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -405,40 +406,41 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" style="1" customWidth="1"/>
+    <col min="4" max="6" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
